--- a/Dados/Dados Coletados/Alto Movimento/BoaVista.xlsx
+++ b/Dados/Dados Coletados/Alto Movimento/BoaVista.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\Academico\UPE\Projeto\Dados\Dados Coletados\Alto Movimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af5036b5c44d2a27/Academico/UPE/IOT/Trabalho1/TrabalhoIOT/WebStreetPE/Dados/Dados Coletados/Alto Movimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608C6A07-0AAB-4A05-96EB-D57E5663D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{53C700DF-AB3A-4445-87A8-277CA6825AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B143360C-62E4-4103-9C82-42CCDAA1A090}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Resultado Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
     <sheet name="Validação" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Validação!$A$1:$B$80</definedName>
-    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">'Resultado Final'!$A$1:$C$163</definedName>
+    <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Final!$A$1:$C$167</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="157">
   <si>
     <t>Rua da Aurora</t>
   </si>
@@ -304,6 +304,219 @@
   <si>
     <t>Qtd</t>
   </si>
+  <si>
+    <t>Rua DRua Sebastião Lins</t>
+  </si>
+  <si>
+    <t>Rua do Riachuelo</t>
+  </si>
+  <si>
+    <t>Rua Clube Nautico Capibaribe</t>
+  </si>
+  <si>
+    <t>Rua Atur Orlando</t>
+  </si>
+  <si>
+    <t>Rua Dom Bôsco</t>
+  </si>
+  <si>
+    <t>Rua Jaguatipã</t>
+  </si>
+  <si>
+    <t>Rua Henrique Dias</t>
+  </si>
+  <si>
+    <t>Rua Luiz Barbalho</t>
+  </si>
+  <si>
+    <t>Rua Carlos Pôrto Carreiro</t>
+  </si>
+  <si>
+    <t>Rua João Fernandes Viêira</t>
+  </si>
+  <si>
+    <t>Rua das Fronteiras</t>
+  </si>
+  <si>
+    <t>Rua Monte Castelo</t>
+  </si>
+  <si>
+    <t>Rua Tabira</t>
+  </si>
+  <si>
+    <t>Rua DRua Leopoldo Lins</t>
+  </si>
+  <si>
+    <t>Rua Hermínia Lins</t>
+  </si>
+  <si>
+    <t>Rua do Paissandú</t>
+  </si>
+  <si>
+    <t>Rua Mario Domingues</t>
+  </si>
+  <si>
+    <t>Rua Artur Orlando</t>
+  </si>
+  <si>
+    <t>Rua Miguel Couto</t>
+  </si>
+  <si>
+    <t>Rua Cap. Rui Lucena</t>
+  </si>
+  <si>
+    <t>Rua dos Médicis</t>
+  </si>
+  <si>
+    <t>Rua Domingos Sávio</t>
+  </si>
+  <si>
+    <t>Rua Joaquim de Brito</t>
+  </si>
+  <si>
+    <t>Rua Visconde de Goiana</t>
+  </si>
+  <si>
+    <t>Rua Barão de São Borja</t>
+  </si>
+  <si>
+    <t>Rua Silva Ramos</t>
+  </si>
+  <si>
+    <t>Rua José de Alencar</t>
+  </si>
+  <si>
+    <t>Rua Porto Rico</t>
+  </si>
+  <si>
+    <t>Rua da Soledade</t>
+  </si>
+  <si>
+    <t>Rua Des. Roderick Galvão</t>
+  </si>
+  <si>
+    <t>Rua Marques Amorim</t>
+  </si>
+  <si>
+    <t>Rua São Gonçalo</t>
+  </si>
+  <si>
+    <t>Rua do Sossego</t>
+  </si>
+  <si>
+    <t>Rua Gervásio Pires</t>
+  </si>
+  <si>
+    <t>Rua Corredor do Bpo.</t>
+  </si>
+  <si>
+    <t>Rua da Conceição</t>
+  </si>
+  <si>
+    <t>Rua da Santa Cruz</t>
+  </si>
+  <si>
+    <t>Rua do Giriquiti</t>
+  </si>
+  <si>
+    <t>Rua do Jasmim</t>
+  </si>
+  <si>
+    <t>Rua da Alegria</t>
+  </si>
+  <si>
+    <t>Rua Leão Coroado</t>
+  </si>
+  <si>
+    <t>Rua Velha</t>
+  </si>
+  <si>
+    <t>Rua da Glória</t>
+  </si>
+  <si>
+    <t>Rua da Matriz</t>
+  </si>
+  <si>
+    <t>Rua Rosário da Boa Vista</t>
+  </si>
+  <si>
+    <t>Rua do Hospício</t>
+  </si>
+  <si>
+    <t>Rua Sete de Setembro</t>
+  </si>
+  <si>
+    <t>Rua da Saudade</t>
+  </si>
+  <si>
+    <t>Rua da União</t>
+  </si>
+  <si>
+    <t>Rua Princesa Isabel</t>
+  </si>
+  <si>
+    <t>Rua Martins Junior</t>
+  </si>
+  <si>
+    <t>Rua do Aragão</t>
+  </si>
+  <si>
+    <t>Rua Gervário Pires</t>
+  </si>
+  <si>
+    <t>Rua Padre João Ribeiro</t>
+  </si>
+  <si>
+    <t>Rua Padre Inglês</t>
+  </si>
+  <si>
+    <t>Rua Cambará</t>
+  </si>
+  <si>
+    <t>Rua Dom Carlos Coelho</t>
+  </si>
+  <si>
+    <t>Rua Samuel Pinto</t>
+  </si>
+  <si>
+    <t>Rua Joaquim Felipe</t>
+  </si>
+  <si>
+    <t>Rua Clóvis da Silveira Barros</t>
+  </si>
+  <si>
+    <t>Avenida Conde Da Boa Vista</t>
+  </si>
+  <si>
+    <t>Avenida Montevidéu</t>
+  </si>
+  <si>
+    <t>Avenida João de Barros</t>
+  </si>
+  <si>
+    <t>Avenida Agamenon Magalhães</t>
+  </si>
+  <si>
+    <t>Avenida Conde da Boa Vista</t>
+  </si>
+  <si>
+    <t>Avenida Manoel Borba</t>
+  </si>
+  <si>
+    <t>Avenida Carlos de Lima Cavalcanti</t>
+  </si>
+  <si>
+    <t>Rua Desembargador Roderick Galvão</t>
+  </si>
+  <si>
+    <t>Rua Jornalista Edmundo Bitencourt</t>
+  </si>
+  <si>
+    <t>Travessa Pedro Albuquerque</t>
+  </si>
+  <si>
+    <t>Rua Sebastião Lins</t>
+  </si>
 </sst>
 </file>
 
@@ -406,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A673F19-3581-4318-B0BA-C0C83C817952}" name="Planilha1" displayName="Planilha1" ref="A1:C163" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C163" xr:uid="{3A673F19-3581-4318-B0BA-C0C83C817952}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A673F19-3581-4318-B0BA-C0C83C817952}" name="Planilha1" displayName="Planilha1" ref="A1:C167" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C167" xr:uid="{3A673F19-3581-4318-B0BA-C0C83C817952}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{08FD5C93-95D3-4E14-B569-D833AB53DC68}" uniqueName="1" name="Bairro" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{20EEF188-7E13-4995-B6C0-23A64D356596}" uniqueName="2" name="Rua 1" queryTableFieldId="2"/>
@@ -29357,15 +29570,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570E3A3-A790-4352-9CC8-6EC75DE3D737}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C163"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -29387,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -29398,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -29409,7 +29622,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -29417,7 +29630,7 @@
         <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -29431,7 +29644,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -29439,7 +29652,7 @@
         <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -29450,10 +29663,10 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -29461,10 +29674,10 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -29472,10 +29685,10 @@
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -29483,10 +29696,10 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29494,10 +29707,10 @@
         <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -29505,10 +29718,10 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -29516,10 +29729,10 @@
         <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -29527,10 +29740,10 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -29538,10 +29751,10 @@
         <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -29549,7 +29762,7 @@
         <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -29560,10 +29773,10 @@
         <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -29571,10 +29784,10 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -29582,10 +29795,10 @@
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -29593,10 +29806,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -29604,10 +29817,10 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -29615,10 +29828,10 @@
         <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -29626,10 +29839,10 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -29637,10 +29850,10 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -29648,10 +29861,10 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -29659,10 +29872,10 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -29670,10 +29883,10 @@
         <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -29681,10 +29894,10 @@
         <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -29692,10 +29905,10 @@
         <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -29703,10 +29916,10 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -29714,10 +29927,10 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -29725,10 +29938,10 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -29736,10 +29949,10 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -29747,10 +29960,10 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -29758,10 +29971,10 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -29769,10 +29982,10 @@
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -29780,10 +29993,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -29791,10 +30004,10 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -29802,10 +30015,10 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -29813,10 +30026,10 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -29824,10 +30037,10 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -29835,10 +30048,10 @@
         <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -29846,10 +30059,10 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -29857,10 +30070,10 @@
         <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -29868,10 +30081,10 @@
         <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -29879,10 +30092,10 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -29890,10 +30103,10 @@
         <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -29901,10 +30114,10 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -29912,10 +30125,10 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -29923,10 +30136,10 @@
         <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -29934,10 +30147,10 @@
         <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -29945,10 +30158,10 @@
         <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -29956,10 +30169,10 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -29967,10 +30180,10 @@
         <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -29978,10 +30191,10 @@
         <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -29989,10 +30202,10 @@
         <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -30000,10 +30213,10 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -30011,10 +30224,10 @@
         <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -30022,10 +30235,10 @@
         <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -30033,10 +30246,10 @@
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -30044,10 +30257,10 @@
         <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -30055,10 +30268,10 @@
         <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -30066,10 +30279,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -30077,10 +30290,10 @@
         <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -30088,10 +30301,10 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -30099,10 +30312,10 @@
         <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -30110,10 +30323,10 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -30121,7 +30334,7 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>43</v>
@@ -30135,7 +30348,7 @@
         <v>43</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -30143,10 +30356,10 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -30154,10 +30367,10 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -30165,10 +30378,10 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -30176,10 +30389,10 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -30187,10 +30400,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -30198,10 +30411,10 @@
         <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -30209,10 +30422,10 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -30220,10 +30433,10 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -30231,10 +30444,10 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -30242,10 +30455,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -30253,10 +30466,10 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -30264,10 +30477,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -30275,10 +30488,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -30286,10 +30499,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -30297,10 +30510,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -30308,10 +30521,10 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -30319,10 +30532,10 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -30330,10 +30543,10 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -30341,10 +30554,10 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -30352,10 +30565,10 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -30363,10 +30576,10 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -30374,10 +30587,10 @@
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -30385,10 +30598,10 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -30396,10 +30609,10 @@
         <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -30407,10 +30620,10 @@
         <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -30418,7 +30631,7 @@
         <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>58</v>
@@ -30429,10 +30642,10 @@
         <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -30440,10 +30653,10 @@
         <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -30451,10 +30664,10 @@
         <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -30465,7 +30678,7 @@
         <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -30476,7 +30689,7 @@
         <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -30484,10 +30697,10 @@
         <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -30495,10 +30708,10 @@
         <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -30506,7 +30719,7 @@
         <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -30517,10 +30730,10 @@
         <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -30528,10 +30741,10 @@
         <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -30539,10 +30752,10 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C107" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -30550,10 +30763,10 @@
         <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -30561,10 +30774,10 @@
         <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -30572,10 +30785,10 @@
         <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -30583,10 +30796,10 @@
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -30594,10 +30807,10 @@
         <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -30605,10 +30818,10 @@
         <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -30616,10 +30829,10 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -30627,10 +30840,10 @@
         <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -30638,10 +30851,10 @@
         <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -30649,10 +30862,10 @@
         <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -30660,10 +30873,10 @@
         <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -30671,10 +30884,10 @@
         <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -30682,10 +30895,10 @@
         <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -30693,10 +30906,10 @@
         <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C121" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -30704,7 +30917,7 @@
         <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -30715,10 +30928,10 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -30726,10 +30939,10 @@
         <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -30737,10 +30950,10 @@
         <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -30751,7 +30964,7 @@
         <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -30762,7 +30975,7 @@
         <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -30781,10 +30994,10 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C129" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -30792,10 +31005,10 @@
         <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C130" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -30803,10 +31016,10 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -30814,10 +31027,10 @@
         <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -30825,10 +31038,10 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -30836,10 +31049,10 @@
         <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C134" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -30847,10 +31060,10 @@
         <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -30858,10 +31071,10 @@
         <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -30869,7 +31082,7 @@
         <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
         <v>70</v>
@@ -30883,7 +31096,7 @@
         <v>70</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -30905,7 +31118,7 @@
         <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -30913,7 +31126,7 @@
         <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30924,10 +31137,10 @@
         <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -30935,10 +31148,10 @@
         <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -30946,10 +31159,10 @@
         <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -30957,10 +31170,10 @@
         <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C145" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -30968,10 +31181,10 @@
         <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -30979,10 +31192,10 @@
         <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -30990,7 +31203,7 @@
         <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -31001,10 +31214,10 @@
         <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -31012,10 +31225,10 @@
         <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -31023,10 +31236,10 @@
         <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -31034,10 +31247,10 @@
         <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -31045,10 +31258,10 @@
         <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -31056,10 +31269,10 @@
         <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C154" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -31067,10 +31280,10 @@
         <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -31078,10 +31291,10 @@
         <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -31089,7 +31302,7 @@
         <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
@@ -31100,10 +31313,10 @@
         <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C158" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -31111,10 +31324,10 @@
         <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C159" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -31122,10 +31335,10 @@
         <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="C160" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -31133,10 +31346,10 @@
         <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -31144,10 +31357,10 @@
         <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -31158,7 +31371,51 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>83</v>
+      </c>
+      <c r="B164" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>83</v>
+      </c>
+      <c r="B166" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" t="s">
+        <v>129</v>
+      </c>
+      <c r="C167" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -31174,8 +31431,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31194,16 +31451,16 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1">
@@ -31217,34 +31474,34 @@
     </row>
     <row r="5" spans="1:2" hidden="1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A5)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" hidden="1">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" hidden="1">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A8)</f>
@@ -31253,7 +31510,7 @@
     </row>
     <row r="9" spans="1:2" hidden="1">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A9)</f>
@@ -31262,7 +31519,7 @@
     </row>
     <row r="10" spans="1:2" hidden="1">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A10)</f>
@@ -31271,7 +31528,7 @@
     </row>
     <row r="11" spans="1:2" hidden="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A11)</f>
@@ -31280,7 +31537,7 @@
     </row>
     <row r="12" spans="1:2" hidden="1">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A12)</f>
@@ -31289,7 +31546,7 @@
     </row>
     <row r="13" spans="1:2" hidden="1">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A13)</f>
@@ -31298,7 +31555,7 @@
     </row>
     <row r="14" spans="1:2" hidden="1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A14)</f>
@@ -31307,7 +31564,7 @@
     </row>
     <row r="15" spans="1:2" hidden="1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A15)</f>
@@ -31316,7 +31573,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A16)</f>
@@ -31325,16 +31582,16 @@
     </row>
     <row r="17" spans="1:2" hidden="1">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A17)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" hidden="1">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A18)</f>
@@ -31343,7 +31600,7 @@
     </row>
     <row r="19" spans="1:2" hidden="1">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A19)</f>
@@ -31352,7 +31609,7 @@
     </row>
     <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A20)</f>
@@ -31361,7 +31618,7 @@
     </row>
     <row r="21" spans="1:2" hidden="1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B21">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A21)</f>
@@ -31370,7 +31627,7 @@
     </row>
     <row r="22" spans="1:2" hidden="1">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B22">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A22)</f>
@@ -31379,7 +31636,7 @@
     </row>
     <row r="23" spans="1:2" hidden="1">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A23)</f>
@@ -31388,7 +31645,7 @@
     </row>
     <row r="24" spans="1:2" hidden="1">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A24)</f>
@@ -31397,7 +31654,7 @@
     </row>
     <row r="25" spans="1:2" hidden="1">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A25)</f>
@@ -31406,7 +31663,7 @@
     </row>
     <row r="26" spans="1:2" hidden="1">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A26)</f>
@@ -31415,7 +31672,7 @@
     </row>
     <row r="27" spans="1:2" hidden="1">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B27">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A27)</f>
@@ -31424,7 +31681,7 @@
     </row>
     <row r="28" spans="1:2" hidden="1">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A28)</f>
@@ -31433,34 +31690,34 @@
     </row>
     <row r="29" spans="1:2" hidden="1">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B30">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A30)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" hidden="1">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" hidden="1">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A32)</f>
@@ -31469,7 +31726,7 @@
     </row>
     <row r="33" spans="1:2" hidden="1">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B33">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A33)</f>
@@ -31487,7 +31744,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A35)</f>
@@ -31496,7 +31753,7 @@
     </row>
     <row r="36" spans="1:2" hidden="1">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B36">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A36)</f>
@@ -31505,7 +31762,7 @@
     </row>
     <row r="37" spans="1:2" hidden="1">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A37)</f>
@@ -31514,7 +31771,7 @@
     </row>
     <row r="38" spans="1:2" hidden="1">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="B38">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A38)</f>
@@ -31523,7 +31780,7 @@
     </row>
     <row r="39" spans="1:2" hidden="1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A39)</f>
@@ -31532,7 +31789,7 @@
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B40">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A40)</f>
@@ -31541,7 +31798,7 @@
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A41)</f>
@@ -31550,7 +31807,7 @@
     </row>
     <row r="42" spans="1:2" hidden="1">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B42">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A42)</f>
@@ -31559,7 +31816,7 @@
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="B43">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A43)</f>
@@ -31568,7 +31825,7 @@
     </row>
     <row r="44" spans="1:2" hidden="1">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="B44">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A44)</f>
@@ -31577,7 +31834,7 @@
     </row>
     <row r="45" spans="1:2" hidden="1">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A45)</f>
@@ -31586,7 +31843,7 @@
     </row>
     <row r="46" spans="1:2" hidden="1">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A46)</f>
@@ -31595,7 +31852,7 @@
     </row>
     <row r="47" spans="1:2" hidden="1">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B47">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A47)</f>
@@ -31613,7 +31870,7 @@
     </row>
     <row r="49" spans="1:2" hidden="1">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A49)</f>
@@ -31622,7 +31879,7 @@
     </row>
     <row r="50" spans="1:2" hidden="1">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A50)</f>
@@ -31631,7 +31888,7 @@
     </row>
     <row r="51" spans="1:2" hidden="1">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="B51">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A51)</f>
@@ -31640,7 +31897,7 @@
     </row>
     <row r="52" spans="1:2" hidden="1">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="B52">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A52)</f>
@@ -31649,7 +31906,7 @@
     </row>
     <row r="53" spans="1:2" hidden="1">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="B53">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A53)</f>
@@ -31658,16 +31915,16 @@
     </row>
     <row r="54" spans="1:2" hidden="1">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="B54">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A54)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" hidden="1">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B55">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A55)</f>
@@ -31676,7 +31933,7 @@
     </row>
     <row r="56" spans="1:2" hidden="1">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="B56">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A56)</f>
@@ -31689,12 +31946,12 @@
       </c>
       <c r="B57">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A57)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" hidden="1">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="B58">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A58)</f>
@@ -31703,7 +31960,7 @@
     </row>
     <row r="59" spans="1:2" hidden="1">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B59">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A59)</f>
@@ -31712,16 +31969,16 @@
     </row>
     <row r="60" spans="1:2" hidden="1">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A60)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="B61">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A61)</f>
@@ -31739,7 +31996,7 @@
     </row>
     <row r="63" spans="1:2" hidden="1">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="B63">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A63)</f>
@@ -31748,7 +32005,7 @@
     </row>
     <row r="64" spans="1:2" hidden="1">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B64">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A64)</f>
@@ -31757,7 +32014,7 @@
     </row>
     <row r="65" spans="1:2" hidden="1">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B65">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A65)</f>
@@ -31766,7 +32023,7 @@
     </row>
     <row r="66" spans="1:2" hidden="1">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="B66">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A66)</f>
@@ -31775,7 +32032,7 @@
     </row>
     <row r="67" spans="1:2" hidden="1">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A67)</f>
@@ -31784,7 +32041,7 @@
     </row>
     <row r="68" spans="1:2" hidden="1">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B68">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A68)</f>
@@ -31793,7 +32050,7 @@
     </row>
     <row r="69" spans="1:2" hidden="1">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="B69">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A69)</f>
@@ -31802,7 +32059,7 @@
     </row>
     <row r="70" spans="1:2" hidden="1">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A70)</f>
@@ -31811,7 +32068,7 @@
     </row>
     <row r="71" spans="1:2" hidden="1">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A71)</f>
@@ -31820,7 +32077,7 @@
     </row>
     <row r="72" spans="1:2" hidden="1">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A72)</f>
@@ -31838,25 +32095,25 @@
     </row>
     <row r="74" spans="1:2" hidden="1">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="B74">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A74)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" hidden="1">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A75)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B76">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A76)</f>
@@ -31865,40 +32122,32 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B77">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A77)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B78">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A78)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B79">
         <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A79)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80">
-        <f>COUNTIF(Planilha1[[Rua 1]:[Rua 2]],Validação!A80)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="80" spans="1:2" hidden="1"/>
   </sheetData>
   <autoFilter ref="A1:B80" xr:uid="{B600A19C-C432-4FBE-9594-5B5851D3CE2C}">
     <filterColumn colId="1">
